--- a/02_1_住所録.xlsx
+++ b/02_1_住所録.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -90,13 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>埼玉県川口市芝</t>
-    <rPh sb="0" eb="7">
-      <t>333-0866</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーポ○○101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -149,10 +142,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○○ビル２F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕事</t>
   </si>
   <si>
@@ -432,6 +421,28 @@
     <t>埼玉県さいたま市南区別所ｘ－ｘ－ｘ</t>
     <rPh sb="0" eb="12">
       <t>336-0021</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県川口市芝x-x-x</t>
+    <rPh sb="0" eb="7">
+      <t>333-0866</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○ビル２F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○ビル２F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(株)GKスポーツ</t>
+    <rPh sb="0" eb="3">
+      <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,13 +487,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -496,8 +514,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:H16" totalsRowShown="0">
-  <autoFilter ref="A1:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B2:I17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:I17"/>
   <tableColumns count="8">
     <tableColumn id="1" name="NO">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
@@ -510,7 +528,7 @@
     <tableColumn id="7" name="会社名"/>
     <tableColumn id="8" name="関係"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -801,345 +819,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f t="shared" ref="A2:A10" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="C7" t="s">
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" ref="B12:B17" si="1">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f>ROW()-1</f>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>ROW()-1</f>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>ROW()-1</f>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>ROW()-1</f>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>ROW()-1</f>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="17" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f>ROW()-1</f>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" t="s">
-        <v>17</v>
+      <c r="I17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16 E3:E16 D5:E16"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E17 F4:F17 E6:F17"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>"親戚,友人,仕事"</formula1>
     </dataValidation>
   </dataValidations>
